--- a/QtRPT/Книга1.xlsx
+++ b/QtRPT/Книга1.xlsx
@@ -35,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -337,207 +346,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>31</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>29</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>SUM(A1:A11)</f>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>SUM(A2:A12)</f>
         <v>45</v>
       </c>
-      <c r="B12">
-        <f t="shared" ref="B12:E12" si="0">SUM(B1:B11)</f>
+      <c r="B13">
+        <f t="shared" ref="B13:E13" si="0">SUM(B2:B12)</f>
         <v>145</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f>SUM(A12:E12)</f>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>SUM(A13:E13)</f>
         <v>1128</v>
       </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>